--- a/Backend/china_univ_1.xlsx
+++ b/Backend/china_univ_1.xlsx
@@ -17478,13 +17478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17499,13 +17493,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17839,26 +17839,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>5693</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -17884,15 +17884,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>2966</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A5" s="6">
@@ -19859,15 +19859,15 @@
       </c>
     </row>
     <row r="97" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="17" t="s">
         <v>2969</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="20"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A98" s="6">
@@ -21091,15 +21091,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="17" t="s">
         <v>2972</v>
       </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="20"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="19"/>
     </row>
     <row r="156" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A156" s="6">
@@ -23715,15 +23715,15 @@
       </c>
     </row>
     <row r="277" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A277" s="12" t="s">
+      <c r="A277" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="20"/>
+      <c r="B277" s="18"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="19"/>
     </row>
     <row r="278" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A278" s="6">
@@ -25436,15 +25436,15 @@
       <c r="G357" s="6"/>
     </row>
     <row r="358" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A358" s="12" t="s">
+      <c r="A358" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
-      <c r="G358" s="14"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="20"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="21"/>
     </row>
     <row r="359" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A359" s="6">
@@ -26580,15 +26580,15 @@
       <c r="G411" s="6"/>
     </row>
     <row r="412" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A412" s="12" t="s">
+      <c r="A412" s="17" t="s">
         <v>5690</v>
       </c>
-      <c r="B412" s="13"/>
-      <c r="C412" s="13"/>
-      <c r="D412" s="13"/>
-      <c r="E412" s="13"/>
-      <c r="F412" s="13"/>
-      <c r="G412" s="14"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
+      <c r="D412" s="20"/>
+      <c r="E412" s="20"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="21"/>
     </row>
     <row r="413" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A413" s="6">
@@ -29072,15 +29072,15 @@
       <c r="G527" s="6"/>
     </row>
     <row r="528" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A528" s="12" t="s">
+      <c r="A528" s="17" t="s">
         <v>5689</v>
       </c>
-      <c r="B528" s="13"/>
-      <c r="C528" s="13"/>
-      <c r="D528" s="13"/>
-      <c r="E528" s="13"/>
-      <c r="F528" s="13"/>
-      <c r="G528" s="14"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20"/>
+      <c r="D528" s="20"/>
+      <c r="E528" s="20"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="21"/>
     </row>
     <row r="529" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A529" s="6">
@@ -30421,15 +30421,15 @@
       </c>
     </row>
     <row r="591" spans="1:7" s="3" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A591" s="12" t="s">
+      <c r="A591" s="17" t="s">
         <v>5688</v>
       </c>
-      <c r="B591" s="13"/>
-      <c r="C591" s="13"/>
-      <c r="D591" s="13"/>
-      <c r="E591" s="13"/>
-      <c r="F591" s="13"/>
-      <c r="G591" s="14"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="20"/>
+      <c r="D591" s="20"/>
+      <c r="E591" s="20"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="21"/>
     </row>
     <row r="592" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A592" s="6">
@@ -32167,15 +32167,15 @@
       <c r="G672" s="6"/>
     </row>
     <row r="673" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A673" s="12" t="s">
+      <c r="A673" s="17" t="s">
         <v>5687</v>
       </c>
-      <c r="B673" s="13"/>
-      <c r="C673" s="13"/>
-      <c r="D673" s="13"/>
-      <c r="E673" s="13"/>
-      <c r="F673" s="13"/>
-      <c r="G673" s="14"/>
+      <c r="B673" s="20"/>
+      <c r="C673" s="20"/>
+      <c r="D673" s="20"/>
+      <c r="E673" s="20"/>
+      <c r="F673" s="20"/>
+      <c r="G673" s="21"/>
     </row>
     <row r="674" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A674" s="6">
@@ -33562,15 +33562,15 @@
       <c r="G737" s="6"/>
     </row>
     <row r="738" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A738" s="12" t="s">
+      <c r="A738" s="17" t="s">
         <v>5686</v>
       </c>
-      <c r="B738" s="13"/>
-      <c r="C738" s="13"/>
-      <c r="D738" s="13"/>
-      <c r="E738" s="13"/>
-      <c r="F738" s="13"/>
-      <c r="G738" s="14"/>
+      <c r="B738" s="20"/>
+      <c r="C738" s="20"/>
+      <c r="D738" s="20"/>
+      <c r="E738" s="20"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="21"/>
     </row>
     <row r="739" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A739" s="6">
@@ -37184,15 +37184,15 @@
       <c r="G905" s="6"/>
     </row>
     <row r="906" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A906" s="12" t="s">
+      <c r="A906" s="17" t="s">
         <v>5685</v>
       </c>
-      <c r="B906" s="13"/>
-      <c r="C906" s="13"/>
-      <c r="D906" s="13"/>
-      <c r="E906" s="13"/>
-      <c r="F906" s="13"/>
-      <c r="G906" s="14"/>
+      <c r="B906" s="20"/>
+      <c r="C906" s="20"/>
+      <c r="D906" s="20"/>
+      <c r="E906" s="20"/>
+      <c r="F906" s="20"/>
+      <c r="G906" s="21"/>
     </row>
     <row r="907" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A907" s="6">
@@ -39514,15 +39514,15 @@
       <c r="G1013" s="6"/>
     </row>
     <row r="1014" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1014" s="12" t="s">
+      <c r="A1014" s="17" t="s">
         <v>5691</v>
       </c>
-      <c r="B1014" s="13"/>
-      <c r="C1014" s="13"/>
-      <c r="D1014" s="13"/>
-      <c r="E1014" s="13"/>
-      <c r="F1014" s="13"/>
-      <c r="G1014" s="14"/>
+      <c r="B1014" s="20"/>
+      <c r="C1014" s="20"/>
+      <c r="D1014" s="20"/>
+      <c r="E1014" s="20"/>
+      <c r="F1014" s="20"/>
+      <c r="G1014" s="21"/>
     </row>
     <row r="1015" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1015" s="6">
@@ -42086,15 +42086,15 @@
       <c r="G1133" s="6"/>
     </row>
     <row r="1134" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1134" s="12" t="s">
+      <c r="A1134" s="17" t="s">
         <v>5684</v>
       </c>
-      <c r="B1134" s="13"/>
-      <c r="C1134" s="13"/>
-      <c r="D1134" s="13"/>
-      <c r="E1134" s="13"/>
-      <c r="F1134" s="13"/>
-      <c r="G1134" s="14"/>
+      <c r="B1134" s="20"/>
+      <c r="C1134" s="20"/>
+      <c r="D1134" s="20"/>
+      <c r="E1134" s="20"/>
+      <c r="F1134" s="20"/>
+      <c r="G1134" s="21"/>
     </row>
     <row r="1135" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1135" s="6">
@@ -44040,15 +44040,15 @@
       </c>
     </row>
     <row r="1224" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1224" s="12" t="s">
+      <c r="A1224" s="17" t="s">
         <v>5683</v>
       </c>
-      <c r="B1224" s="13"/>
-      <c r="C1224" s="13"/>
-      <c r="D1224" s="13"/>
-      <c r="E1224" s="13"/>
-      <c r="F1224" s="13"/>
-      <c r="G1224" s="14"/>
+      <c r="B1224" s="20"/>
+      <c r="C1224" s="20"/>
+      <c r="D1224" s="20"/>
+      <c r="E1224" s="20"/>
+      <c r="F1224" s="20"/>
+      <c r="G1224" s="21"/>
     </row>
     <row r="1225" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1225" s="6">
@@ -46213,15 +46213,15 @@
       <c r="G1324" s="6"/>
     </row>
     <row r="1325" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1325" s="12" t="s">
+      <c r="A1325" s="17" t="s">
         <v>5682</v>
       </c>
-      <c r="B1325" s="13"/>
-      <c r="C1325" s="13"/>
-      <c r="D1325" s="13"/>
-      <c r="E1325" s="13"/>
-      <c r="F1325" s="13"/>
-      <c r="G1325" s="14"/>
+      <c r="B1325" s="20"/>
+      <c r="C1325" s="20"/>
+      <c r="D1325" s="20"/>
+      <c r="E1325" s="20"/>
+      <c r="F1325" s="20"/>
+      <c r="G1325" s="21"/>
     </row>
     <row r="1326" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1326" s="6">
@@ -49349,15 +49349,15 @@
       </c>
     </row>
     <row r="1471" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1471" s="12" t="s">
+      <c r="A1471" s="17" t="s">
         <v>5681</v>
       </c>
-      <c r="B1471" s="13"/>
-      <c r="C1471" s="13"/>
-      <c r="D1471" s="13"/>
-      <c r="E1471" s="13"/>
-      <c r="F1471" s="13"/>
-      <c r="G1471" s="14"/>
+      <c r="B1471" s="20"/>
+      <c r="C1471" s="20"/>
+      <c r="D1471" s="20"/>
+      <c r="E1471" s="20"/>
+      <c r="F1471" s="20"/>
+      <c r="G1471" s="21"/>
     </row>
     <row r="1472" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1472" s="6">
@@ -52248,15 +52248,15 @@
       <c r="G1605" s="6"/>
     </row>
     <row r="1606" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1606" s="12" t="s">
+      <c r="A1606" s="17" t="s">
         <v>5680</v>
       </c>
-      <c r="B1606" s="13"/>
-      <c r="C1606" s="13"/>
-      <c r="D1606" s="13"/>
-      <c r="E1606" s="13"/>
-      <c r="F1606" s="13"/>
-      <c r="G1606" s="14"/>
+      <c r="B1606" s="20"/>
+      <c r="C1606" s="20"/>
+      <c r="D1606" s="20"/>
+      <c r="E1606" s="20"/>
+      <c r="F1606" s="20"/>
+      <c r="G1606" s="21"/>
     </row>
     <row r="1607" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1607" s="6">
@@ -55052,15 +55052,15 @@
       </c>
     </row>
     <row r="1736" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1736" s="12" t="s">
+      <c r="A1736" s="17" t="s">
         <v>5679</v>
       </c>
-      <c r="B1736" s="13"/>
-      <c r="C1736" s="13"/>
-      <c r="D1736" s="13"/>
-      <c r="E1736" s="13"/>
-      <c r="F1736" s="13"/>
-      <c r="G1736" s="14"/>
+      <c r="B1736" s="20"/>
+      <c r="C1736" s="20"/>
+      <c r="D1736" s="20"/>
+      <c r="E1736" s="20"/>
+      <c r="F1736" s="20"/>
+      <c r="G1736" s="21"/>
     </row>
     <row r="1737" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1737" s="6">
@@ -57729,15 +57729,15 @@
       <c r="G1860" s="10"/>
     </row>
     <row r="1861" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1861" s="12" t="s">
+      <c r="A1861" s="17" t="s">
         <v>5678</v>
       </c>
-      <c r="B1861" s="13"/>
-      <c r="C1861" s="13"/>
-      <c r="D1861" s="13"/>
-      <c r="E1861" s="13"/>
-      <c r="F1861" s="13"/>
-      <c r="G1861" s="14"/>
+      <c r="B1861" s="20"/>
+      <c r="C1861" s="20"/>
+      <c r="D1861" s="20"/>
+      <c r="E1861" s="20"/>
+      <c r="F1861" s="20"/>
+      <c r="G1861" s="21"/>
     </row>
     <row r="1862" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1862" s="6">
@@ -61019,14 +61019,14 @@
       <c r="G2012" s="10"/>
     </row>
     <row r="2013" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2013" s="12" t="s">
+      <c r="A2013" s="17" t="s">
         <v>5667</v>
       </c>
-      <c r="B2013" s="13"/>
-      <c r="C2013" s="13"/>
-      <c r="D2013" s="13"/>
-      <c r="E2013" s="13"/>
-      <c r="F2013" s="13"/>
+      <c r="B2013" s="20"/>
+      <c r="C2013" s="20"/>
+      <c r="D2013" s="20"/>
+      <c r="E2013" s="20"/>
+      <c r="F2013" s="20"/>
       <c r="G2013" s="11"/>
     </row>
     <row r="2014" spans="1:7" s="2" customFormat="1" ht="21.95" customHeight="1">
@@ -62632,15 +62632,15 @@
       <c r="G2087" s="6"/>
     </row>
     <row r="2088" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2088" s="12" t="s">
+      <c r="A2088" s="17" t="s">
         <v>5668</v>
       </c>
-      <c r="B2088" s="13"/>
-      <c r="C2088" s="13"/>
-      <c r="D2088" s="13"/>
-      <c r="E2088" s="13"/>
-      <c r="F2088" s="13"/>
-      <c r="G2088" s="14"/>
+      <c r="B2088" s="20"/>
+      <c r="C2088" s="20"/>
+      <c r="D2088" s="20"/>
+      <c r="E2088" s="20"/>
+      <c r="F2088" s="20"/>
+      <c r="G2088" s="21"/>
     </row>
     <row r="2089" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2089" s="6">
@@ -63058,15 +63058,15 @@
       </c>
     </row>
     <row r="2108" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2108" s="12" t="s">
+      <c r="A2108" s="17" t="s">
         <v>5669</v>
       </c>
-      <c r="B2108" s="13"/>
-      <c r="C2108" s="13"/>
-      <c r="D2108" s="13"/>
-      <c r="E2108" s="13"/>
-      <c r="F2108" s="13"/>
-      <c r="G2108" s="14"/>
+      <c r="B2108" s="20"/>
+      <c r="C2108" s="20"/>
+      <c r="D2108" s="20"/>
+      <c r="E2108" s="20"/>
+      <c r="F2108" s="20"/>
+      <c r="G2108" s="21"/>
     </row>
     <row r="2109" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2109" s="6">
@@ -64486,15 +64486,15 @@
       </c>
     </row>
     <row r="2174" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2174" s="12" t="s">
+      <c r="A2174" s="17" t="s">
         <v>5670</v>
       </c>
-      <c r="B2174" s="13"/>
-      <c r="C2174" s="13"/>
-      <c r="D2174" s="13"/>
-      <c r="E2174" s="13"/>
-      <c r="F2174" s="13"/>
-      <c r="G2174" s="14"/>
+      <c r="B2174" s="20"/>
+      <c r="C2174" s="20"/>
+      <c r="D2174" s="20"/>
+      <c r="E2174" s="20"/>
+      <c r="F2174" s="20"/>
+      <c r="G2174" s="21"/>
     </row>
     <row r="2175" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2175" s="6">
@@ -66854,15 +66854,15 @@
       </c>
     </row>
     <row r="2284" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2284" s="12" t="s">
+      <c r="A2284" s="17" t="s">
         <v>5671</v>
       </c>
-      <c r="B2284" s="13"/>
-      <c r="C2284" s="13"/>
-      <c r="D2284" s="13"/>
-      <c r="E2284" s="13"/>
-      <c r="F2284" s="13"/>
-      <c r="G2284" s="14"/>
+      <c r="B2284" s="20"/>
+      <c r="C2284" s="20"/>
+      <c r="D2284" s="20"/>
+      <c r="E2284" s="20"/>
+      <c r="F2284" s="20"/>
+      <c r="G2284" s="21"/>
     </row>
     <row r="2285" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2285" s="6">
@@ -68365,15 +68365,15 @@
       <c r="G2354" s="6"/>
     </row>
     <row r="2355" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2355" s="12" t="s">
+      <c r="A2355" s="17" t="s">
         <v>5692</v>
       </c>
-      <c r="B2355" s="13"/>
-      <c r="C2355" s="13"/>
-      <c r="D2355" s="13"/>
-      <c r="E2355" s="13"/>
-      <c r="F2355" s="13"/>
-      <c r="G2355" s="14"/>
+      <c r="B2355" s="20"/>
+      <c r="C2355" s="20"/>
+      <c r="D2355" s="20"/>
+      <c r="E2355" s="20"/>
+      <c r="F2355" s="20"/>
+      <c r="G2355" s="21"/>
     </row>
     <row r="2356" spans="1:7" s="2" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2356" s="6">
@@ -70033,15 +70033,15 @@
       <c r="G2432" s="10"/>
     </row>
     <row r="2433" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2433" s="12" t="s">
+      <c r="A2433" s="17" t="s">
         <v>5672</v>
       </c>
-      <c r="B2433" s="13"/>
-      <c r="C2433" s="13"/>
-      <c r="D2433" s="13"/>
-      <c r="E2433" s="13"/>
-      <c r="F2433" s="13"/>
-      <c r="G2433" s="14"/>
+      <c r="B2433" s="20"/>
+      <c r="C2433" s="20"/>
+      <c r="D2433" s="20"/>
+      <c r="E2433" s="20"/>
+      <c r="F2433" s="20"/>
+      <c r="G2433" s="21"/>
     </row>
     <row r="2434" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2434" s="6">
@@ -70191,15 +70191,15 @@
       <c r="G2440" s="6"/>
     </row>
     <row r="2441" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2441" s="12" t="s">
+      <c r="A2441" s="17" t="s">
         <v>5673</v>
       </c>
-      <c r="B2441" s="13"/>
-      <c r="C2441" s="13"/>
-      <c r="D2441" s="13"/>
-      <c r="E2441" s="13"/>
-      <c r="F2441" s="13"/>
-      <c r="G2441" s="14"/>
+      <c r="B2441" s="20"/>
+      <c r="C2441" s="20"/>
+      <c r="D2441" s="20"/>
+      <c r="E2441" s="20"/>
+      <c r="F2441" s="20"/>
+      <c r="G2441" s="21"/>
     </row>
     <row r="2442" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2442" s="6">
@@ -72215,15 +72215,15 @@
       <c r="G2534" s="6"/>
     </row>
     <row r="2535" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2535" s="12" t="s">
+      <c r="A2535" s="17" t="s">
         <v>5674</v>
       </c>
-      <c r="B2535" s="13"/>
-      <c r="C2535" s="13"/>
-      <c r="D2535" s="13"/>
-      <c r="E2535" s="13"/>
-      <c r="F2535" s="13"/>
-      <c r="G2535" s="14"/>
+      <c r="B2535" s="20"/>
+      <c r="C2535" s="20"/>
+      <c r="D2535" s="20"/>
+      <c r="E2535" s="20"/>
+      <c r="F2535" s="20"/>
+      <c r="G2535" s="21"/>
     </row>
     <row r="2536" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2536" s="6">
@@ -73269,15 +73269,15 @@
       <c r="G2584" s="6"/>
     </row>
     <row r="2585" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2585" s="12" t="s">
+      <c r="A2585" s="17" t="s">
         <v>5675</v>
       </c>
-      <c r="B2585" s="13"/>
-      <c r="C2585" s="13"/>
-      <c r="D2585" s="13"/>
-      <c r="E2585" s="13"/>
-      <c r="F2585" s="13"/>
-      <c r="G2585" s="14"/>
+      <c r="B2585" s="20"/>
+      <c r="C2585" s="20"/>
+      <c r="D2585" s="20"/>
+      <c r="E2585" s="20"/>
+      <c r="F2585" s="20"/>
+      <c r="G2585" s="21"/>
     </row>
     <row r="2586" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2586" s="6">
@@ -73534,15 +73534,15 @@
       <c r="G2597" s="6"/>
     </row>
     <row r="2598" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2598" s="12" t="s">
+      <c r="A2598" s="17" t="s">
         <v>5676</v>
       </c>
-      <c r="B2598" s="13"/>
-      <c r="C2598" s="13"/>
-      <c r="D2598" s="13"/>
-      <c r="E2598" s="13"/>
-      <c r="F2598" s="13"/>
-      <c r="G2598" s="14"/>
+      <c r="B2598" s="20"/>
+      <c r="C2598" s="20"/>
+      <c r="D2598" s="20"/>
+      <c r="E2598" s="20"/>
+      <c r="F2598" s="20"/>
+      <c r="G2598" s="21"/>
     </row>
     <row r="2599" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2599" s="6">
@@ -73952,15 +73952,15 @@
       <c r="G2617" s="6"/>
     </row>
     <row r="2618" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2618" s="12" t="s">
+      <c r="A2618" s="17" t="s">
         <v>5677</v>
       </c>
-      <c r="B2618" s="13"/>
-      <c r="C2618" s="13"/>
-      <c r="D2618" s="13"/>
-      <c r="E2618" s="13"/>
-      <c r="F2618" s="13"/>
-      <c r="G2618" s="14"/>
+      <c r="B2618" s="20"/>
+      <c r="C2618" s="20"/>
+      <c r="D2618" s="20"/>
+      <c r="E2618" s="20"/>
+      <c r="F2618" s="20"/>
+      <c r="G2618" s="21"/>
     </row>
     <row r="2619" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2619" s="6">
@@ -74969,29 +74969,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A412:G412"/>
+    <mergeCell ref="A2585:G2585"/>
+    <mergeCell ref="A2598:G2598"/>
+    <mergeCell ref="A2618:G2618"/>
+    <mergeCell ref="A1861:G1861"/>
+    <mergeCell ref="A1736:G1736"/>
+    <mergeCell ref="A2535:G2535"/>
+    <mergeCell ref="A2441:G2441"/>
+    <mergeCell ref="A2174:G2174"/>
+    <mergeCell ref="A2108:G2108"/>
+    <mergeCell ref="A2088:G2088"/>
+    <mergeCell ref="A2013:F2013"/>
     <mergeCell ref="A277:G277"/>
     <mergeCell ref="A358:G358"/>
     <mergeCell ref="A2284:G2284"/>
     <mergeCell ref="A2355:G2355"/>
     <mergeCell ref="A2433:G2433"/>
-    <mergeCell ref="A2441:G2441"/>
-    <mergeCell ref="A2174:G2174"/>
-    <mergeCell ref="A2108:G2108"/>
-    <mergeCell ref="A2088:G2088"/>
-    <mergeCell ref="A2013:F2013"/>
     <mergeCell ref="A906:G906"/>
-    <mergeCell ref="A2585:G2585"/>
-    <mergeCell ref="A2598:G2598"/>
-    <mergeCell ref="A2618:G2618"/>
-    <mergeCell ref="A1861:G1861"/>
-    <mergeCell ref="A1736:G1736"/>
     <mergeCell ref="A1606:G1606"/>
-    <mergeCell ref="A2535:G2535"/>
     <mergeCell ref="A1471:G1471"/>
     <mergeCell ref="A1325:G1325"/>
     <mergeCell ref="A1224:G1224"/>
@@ -75001,7 +74997,11 @@
     <mergeCell ref="A673:G673"/>
     <mergeCell ref="A591:G591"/>
     <mergeCell ref="A528:G528"/>
-    <mergeCell ref="A412:G412"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A155:G155"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
